--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H2">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I2">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J2">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N2">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O2">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P2">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q2">
-        <v>25.049632423277</v>
+        <v>37.9147420312535</v>
       </c>
       <c r="R2">
-        <v>100.198529693108</v>
+        <v>151.658968125014</v>
       </c>
       <c r="S2">
-        <v>0.007600680949678675</v>
+        <v>0.009446755976188938</v>
       </c>
       <c r="T2">
-        <v>0.003927015677430041</v>
+        <v>0.004950445041339737</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H3">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I3">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J3">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N3">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O3">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P3">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q3">
-        <v>140.9828348449986</v>
+        <v>159.0257493756424</v>
       </c>
       <c r="R3">
-        <v>845.897009069992</v>
+        <v>954.1544962538542</v>
       </c>
       <c r="S3">
-        <v>0.0427776954540195</v>
+        <v>0.0396225153541578</v>
       </c>
       <c r="T3">
-        <v>0.03315269022692583</v>
+        <v>0.03114546705050958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H4">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I4">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J4">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N4">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O4">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P4">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q4">
-        <v>99.23147595605201</v>
+        <v>225.5631560651735</v>
       </c>
       <c r="R4">
-        <v>595.3888557363121</v>
+        <v>1353.378936391041</v>
       </c>
       <c r="S4">
-        <v>0.0301092956640277</v>
+        <v>0.05620083319597014</v>
       </c>
       <c r="T4">
-        <v>0.02333468742310749</v>
+        <v>0.04417693280879994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H5">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I5">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J5">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N5">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O5">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P5">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q5">
-        <v>63.25388173099601</v>
+        <v>98.44080827461651</v>
       </c>
       <c r="R5">
-        <v>253.015526923984</v>
+        <v>393.7632330984661</v>
       </c>
       <c r="S5">
-        <v>0.01919279954859771</v>
+        <v>0.02452730109841019</v>
       </c>
       <c r="T5">
-        <v>0.009916272662951565</v>
+        <v>0.01285320129006399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H6">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I6">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J6">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N6">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O6">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P6">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q6">
-        <v>18.885532916646</v>
+        <v>27.17520631043984</v>
       </c>
       <c r="R6">
-        <v>113.313197499876</v>
+        <v>163.051237862639</v>
       </c>
       <c r="S6">
-        <v>0.005730339984178596</v>
+        <v>0.00677091624164817</v>
       </c>
       <c r="T6">
-        <v>0.004441010306285431</v>
+        <v>0.005322310984577211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.995514</v>
+        <v>10.1467555</v>
       </c>
       <c r="H7">
-        <v>17.991028</v>
+        <v>20.293511</v>
       </c>
       <c r="I7">
-        <v>0.1370970087225826</v>
+        <v>0.1516003594919049</v>
       </c>
       <c r="J7">
-        <v>0.09932846147431176</v>
+        <v>0.1102643619993968</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N7">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O7">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P7">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q7">
-        <v>104.4284842443187</v>
+        <v>60.33138044558451</v>
       </c>
       <c r="R7">
-        <v>626.570905465912</v>
+        <v>361.9882826735071</v>
       </c>
       <c r="S7">
-        <v>0.03168619712208044</v>
+        <v>0.01503203762552967</v>
       </c>
       <c r="T7">
-        <v>0.02455678517761141</v>
+        <v>0.0118160048241063</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>26.900675</v>
       </c>
       <c r="I8">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J8">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N8">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O8">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P8">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q8">
-        <v>24.96992836977917</v>
+        <v>33.50601917665833</v>
       </c>
       <c r="R8">
-        <v>149.819570218675</v>
+        <v>201.03611505995</v>
       </c>
       <c r="S8">
-        <v>0.007576496759236416</v>
+        <v>0.008348288025657277</v>
       </c>
       <c r="T8">
-        <v>0.005871780781979237</v>
+        <v>0.00656221159376718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>26.900675</v>
       </c>
       <c r="I9">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J9">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N9">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O9">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P9">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q9">
         <v>140.5342492841056</v>
@@ -1013,10 +1013,10 @@
         <v>1264.80824355695</v>
       </c>
       <c r="S9">
-        <v>0.04264158344768871</v>
+        <v>0.03501521276841347</v>
       </c>
       <c r="T9">
-        <v>0.04957080524638213</v>
+        <v>0.04128581233917416</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>26.900675</v>
       </c>
       <c r="I10">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J10">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N10">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O10">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P10">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q10">
-        <v>98.91573675738334</v>
+        <v>199.3346922006583</v>
       </c>
       <c r="R10">
-        <v>890.24163081645</v>
+        <v>1794.012229805925</v>
       </c>
       <c r="S10">
-        <v>0.03001349254517005</v>
+        <v>0.04966580527585078</v>
       </c>
       <c r="T10">
-        <v>0.03489066008877324</v>
+        <v>0.05856006444554439</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>26.900675</v>
       </c>
       <c r="I11">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J11">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N11">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O11">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P11">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q11">
-        <v>63.05261766898334</v>
+        <v>86.99411978317501</v>
       </c>
       <c r="R11">
-        <v>378.3157060139001</v>
+        <v>521.96471869905</v>
       </c>
       <c r="S11">
-        <v>0.01913173103085878</v>
+        <v>0.0216752686930476</v>
       </c>
       <c r="T11">
-        <v>0.01482708092708458</v>
+        <v>0.01703794826896106</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>26.900675</v>
       </c>
       <c r="I12">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J12">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N12">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O12">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P12">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q12">
-        <v>18.825442073775</v>
+        <v>24.01527572089722</v>
       </c>
       <c r="R12">
-        <v>169.428978663975</v>
+        <v>216.137481488075</v>
       </c>
       <c r="S12">
-        <v>0.00571210692922026</v>
+        <v>0.005983594699106819</v>
       </c>
       <c r="T12">
-        <v>0.006640319548223416</v>
+        <v>0.007055149700071197</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>26.900675</v>
       </c>
       <c r="I13">
-        <v>0.1366607872590108</v>
+        <v>0.1339722830802056</v>
       </c>
       <c r="J13">
-        <v>0.1485186205241013</v>
+        <v>0.1461642475877201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N13">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O13">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P13">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q13">
-        <v>104.0962089696055</v>
+        <v>53.31605285610834</v>
       </c>
       <c r="R13">
-        <v>936.86588072645</v>
+        <v>479.844475704975</v>
       </c>
       <c r="S13">
-        <v>0.03158537654683661</v>
+        <v>0.01328411361812964</v>
       </c>
       <c r="T13">
-        <v>0.0367179739316587</v>
+        <v>0.01566306124020214</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H14">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I14">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J14">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N14">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O14">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P14">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q14">
-        <v>49.92070277885251</v>
+        <v>64.88012004169732</v>
       </c>
       <c r="R14">
-        <v>299.5242166731151</v>
+        <v>389.2807202501839</v>
       </c>
       <c r="S14">
-        <v>0.0151471817308271</v>
+        <v>0.01616539184770227</v>
       </c>
       <c r="T14">
-        <v>0.0117390574317597</v>
+        <v>0.01270688331245367</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H15">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I15">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J15">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N15">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O15">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P15">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q15">
-        <v>280.96069739839</v>
+        <v>272.1265965810249</v>
       </c>
       <c r="R15">
-        <v>2528.64627658551</v>
+        <v>2449.139369229224</v>
       </c>
       <c r="S15">
-        <v>0.08525045734164156</v>
+        <v>0.06780248037590994</v>
       </c>
       <c r="T15">
-        <v>0.09910358566378659</v>
+        <v>0.07994469430885574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H16">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I16">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J16">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N16">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O16">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P16">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q16">
-        <v>197.75559712029</v>
+        <v>385.9861325293772</v>
       </c>
       <c r="R16">
-        <v>1779.80037408261</v>
+        <v>3473.875192764396</v>
       </c>
       <c r="S16">
-        <v>0.06000396230676052</v>
+        <v>0.09617147866105102</v>
       </c>
       <c r="T16">
-        <v>0.06975455621080842</v>
+        <v>0.1133940737884869</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H17">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I17">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J17">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N17">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O17">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P17">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q17">
-        <v>126.05686886517</v>
+        <v>168.452984662116</v>
       </c>
       <c r="R17">
-        <v>756.3412131910201</v>
+        <v>1010.717907972696</v>
       </c>
       <c r="S17">
-        <v>0.03824878647198526</v>
+        <v>0.04197138512117411</v>
       </c>
       <c r="T17">
-        <v>0.02964278828027444</v>
+        <v>0.03299180732650289</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H18">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I18">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J18">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N18">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O18">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P18">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q18">
-        <v>37.636443506295</v>
+        <v>46.50250939663155</v>
       </c>
       <c r="R18">
-        <v>338.727991556655</v>
+        <v>418.5225845696839</v>
       </c>
       <c r="S18">
-        <v>0.01141983220904011</v>
+        <v>0.01158646571268489</v>
       </c>
       <c r="T18">
-        <v>0.01327554543266785</v>
+        <v>0.01366139489861105</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.926905</v>
+        <v>17.36323866666666</v>
       </c>
       <c r="H19">
-        <v>53.780715</v>
+        <v>52.089716</v>
       </c>
       <c r="I19">
-        <v>0.2732167446078023</v>
+        <v>0.2594201884346587</v>
       </c>
       <c r="J19">
-        <v>0.2969233152179209</v>
+        <v>0.2830283681059314</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N19">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O19">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P19">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q19">
-        <v>208.11256770229</v>
+        <v>103.2397161601213</v>
       </c>
       <c r="R19">
-        <v>1873.01310932061</v>
+        <v>929.157445441092</v>
       </c>
       <c r="S19">
-        <v>0.06314652454754774</v>
+        <v>0.0257229867161365</v>
       </c>
       <c r="T19">
-        <v>0.07340778219862387</v>
+        <v>0.03032951447102117</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H20">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I20">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J20">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N20">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O20">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P20">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q20">
-        <v>18.71457478789325</v>
+        <v>24.669019646047</v>
       </c>
       <c r="R20">
-        <v>74.85829915157301</v>
+        <v>98.67607858418801</v>
       </c>
       <c r="S20">
-        <v>0.005678467039679966</v>
+        <v>0.006146480136299432</v>
       </c>
       <c r="T20">
-        <v>0.002933872535399043</v>
+        <v>0.003220980005107749</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H21">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I21">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J21">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N21">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O21">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P21">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q21">
-        <v>105.3282444202336</v>
+        <v>103.4692345352447</v>
       </c>
       <c r="R21">
-        <v>631.969466521402</v>
+        <v>620.8154072114681</v>
       </c>
       <c r="S21">
-        <v>0.03195920671810156</v>
+        <v>0.02578017302324771</v>
       </c>
       <c r="T21">
-        <v>0.02476836746295438</v>
+        <v>0.02026462788329114</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H22">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I22">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J22">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N22">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O22">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P22">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q22">
-        <v>74.135813520637</v>
+        <v>146.761434478687</v>
       </c>
       <c r="R22">
-        <v>444.814881123822</v>
+        <v>880.568606872122</v>
       </c>
       <c r="S22">
-        <v>0.0224946480648406</v>
+        <v>0.03656676490355013</v>
       </c>
       <c r="T22">
-        <v>0.01743333976134761</v>
+        <v>0.02874347984391004</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H23">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I23">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J23">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N23">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O23">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P23">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q23">
-        <v>47.256960911701</v>
+        <v>64.04997378849301</v>
       </c>
       <c r="R23">
-        <v>189.027843646804</v>
+        <v>256.199895153972</v>
       </c>
       <c r="S23">
-        <v>0.01433893625550801</v>
+        <v>0.01595855438400268</v>
       </c>
       <c r="T23">
-        <v>0.007408445091413878</v>
+        <v>0.008362865158829683</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H24">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I24">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J24">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N24">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O24">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P24">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q24">
-        <v>14.1093774234135</v>
+        <v>17.68139943573967</v>
       </c>
       <c r="R24">
-        <v>84.65626454048099</v>
+        <v>106.088396614438</v>
       </c>
       <c r="S24">
-        <v>0.004281135722147897</v>
+        <v>0.004405459640191443</v>
       </c>
       <c r="T24">
-        <v>0.003317877807801808</v>
+        <v>0.003462932548312691</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.720546499999999</v>
+        <v>6.601931</v>
       </c>
       <c r="H25">
-        <v>13.441093</v>
+        <v>13.203862</v>
       </c>
       <c r="I25">
-        <v>0.1024251445921847</v>
+        <v>0.09863794519743292</v>
       </c>
       <c r="J25">
-        <v>0.07420827137966443</v>
+        <v>0.07174290438742112</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N25">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O25">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P25">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q25">
-        <v>78.01849725190365</v>
+        <v>39.254282892349</v>
       </c>
       <c r="R25">
-        <v>468.1109835114219</v>
+        <v>235.525697354094</v>
       </c>
       <c r="S25">
-        <v>0.02367275079190669</v>
+        <v>0.009780513110141536</v>
       </c>
       <c r="T25">
-        <v>0.01834636872074772</v>
+        <v>0.007688018947969817</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H26">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I26">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J26">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N26">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O26">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P26">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q26">
-        <v>16.14188598088383</v>
+        <v>20.14769385822967</v>
       </c>
       <c r="R26">
-        <v>96.85131588530301</v>
+        <v>120.886163149378</v>
       </c>
       <c r="S26">
-        <v>0.004897849325436879</v>
+        <v>0.0050199562799284</v>
       </c>
       <c r="T26">
-        <v>0.003795830507954797</v>
+        <v>0.003945960560908765</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H27">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I27">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J27">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N27">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O27">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P27">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q27">
-        <v>90.8487919852691</v>
+        <v>84.50544411867314</v>
       </c>
       <c r="R27">
-        <v>817.639127867422</v>
+        <v>760.5489970680583</v>
       </c>
       <c r="S27">
-        <v>0.02756578104124621</v>
+        <v>0.02105519559095317</v>
       </c>
       <c r="T27">
-        <v>0.03204519750389557</v>
+        <v>0.02482580527732395</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H28">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I28">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J28">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N28">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O28">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P28">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q28">
-        <v>63.94437824600467</v>
+        <v>119.8630709487897</v>
       </c>
       <c r="R28">
-        <v>575.499404214042</v>
+        <v>1078.767638539107</v>
       </c>
       <c r="S28">
-        <v>0.01940231334978902</v>
+        <v>0.02986482621657974</v>
       </c>
       <c r="T28">
-        <v>0.02255517311104457</v>
+        <v>0.03521308349244188</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H29">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I29">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J29">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N29">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O29">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P29">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q29">
-        <v>40.76055606314067</v>
+        <v>52.31092609409701</v>
       </c>
       <c r="R29">
-        <v>244.563336378844</v>
+        <v>313.8655565645821</v>
       </c>
       <c r="S29">
-        <v>0.01236776559162355</v>
+        <v>0.01303367838536369</v>
       </c>
       <c r="T29">
-        <v>0.009585011466993381</v>
+        <v>0.01024518501841368</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H30">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I30">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J30">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N30">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O30">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P30">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q30">
-        <v>12.169764165699</v>
+        <v>14.44076124336145</v>
       </c>
       <c r="R30">
-        <v>109.527877491291</v>
+        <v>129.966851190253</v>
       </c>
       <c r="S30">
-        <v>0.003692608861212579</v>
+        <v>0.003598029164064767</v>
       </c>
       <c r="T30">
-        <v>0.004292654725985679</v>
+        <v>0.004242371961036762</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.796674333333333</v>
+        <v>5.391932333333334</v>
       </c>
       <c r="H31">
-        <v>17.390023</v>
+        <v>16.175797</v>
       </c>
       <c r="I31">
-        <v>0.08834478070280039</v>
+        <v>0.080559631114533</v>
       </c>
       <c r="J31">
-        <v>0.09601031300673288</v>
+        <v>0.0878908502346763</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N31">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O31">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P31">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q31">
-        <v>67.2933102308491</v>
+        <v>32.05977723018767</v>
       </c>
       <c r="R31">
-        <v>605.6397920776419</v>
+        <v>288.5379950716891</v>
       </c>
       <c r="S31">
-        <v>0.02041846253349216</v>
+        <v>0.007987945477643239</v>
       </c>
       <c r="T31">
-        <v>0.02373644569085889</v>
+        <v>0.009418443924551266</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H32">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I32">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J32">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N32">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O32">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P32">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q32">
-        <v>47.91792900354017</v>
+        <v>68.979055137489</v>
       </c>
       <c r="R32">
-        <v>287.5075740212411</v>
+        <v>413.874330824934</v>
       </c>
       <c r="S32">
-        <v>0.01453949039934124</v>
+        <v>0.01718667374328426</v>
       </c>
       <c r="T32">
-        <v>0.01126809698724502</v>
+        <v>0.01350966681430404</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H33">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I33">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J33">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N33">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O33">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P33">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q33">
-        <v>269.6888064729815</v>
+        <v>289.3187543098861</v>
       </c>
       <c r="R33">
-        <v>2427.199258256834</v>
+        <v>2603.868788788975</v>
       </c>
       <c r="S33">
-        <v>0.08183028553329214</v>
+        <v>0.07208604159953176</v>
       </c>
       <c r="T33">
-        <v>0.09512763878487102</v>
+        <v>0.08499536488428479</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H34">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I34">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J34">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N34">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O34">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P34">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q34">
-        <v>189.8218201142193</v>
+        <v>410.371600745169</v>
       </c>
       <c r="R34">
-        <v>1708.396381027974</v>
+        <v>3693.344406706521</v>
       </c>
       <c r="S34">
-        <v>0.05759665721221529</v>
+        <v>0.1022473097298687</v>
       </c>
       <c r="T34">
-        <v>0.06695606604318326</v>
+        <v>0.1205579777456267</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H35">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I35">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J35">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N35">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O35">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P35">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q35">
-        <v>120.9995804636114</v>
+        <v>179.095348615491</v>
       </c>
       <c r="R35">
-        <v>725.9974827816681</v>
+        <v>1074.572091692946</v>
       </c>
       <c r="S35">
-        <v>0.03671427949953806</v>
+        <v>0.04462301374611505</v>
       </c>
       <c r="T35">
-        <v>0.02845354622857762</v>
+        <v>0.03507613264583473</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H36">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I36">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J36">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N36">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O36">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P36">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q36">
-        <v>36.126503183853</v>
+        <v>49.44040112195101</v>
       </c>
       <c r="R36">
-        <v>325.138528654677</v>
+        <v>444.963610097559</v>
       </c>
       <c r="S36">
-        <v>0.01096167879385178</v>
+        <v>0.01231846452704264</v>
       </c>
       <c r="T36">
-        <v>0.01274294246905778</v>
+        <v>0.01452448163413802</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>17.20769366666667</v>
+        <v>18.460197</v>
       </c>
       <c r="H37">
-        <v>51.623081</v>
+        <v>55.380591</v>
       </c>
       <c r="I37">
-        <v>0.2622555341156191</v>
+        <v>0.2758095926812649</v>
       </c>
       <c r="J37">
-        <v>0.2850110183972687</v>
+        <v>0.3009092676848542</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N37">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O37">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P37">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q37">
-        <v>199.7632783352416</v>
+        <v>109.762097678163</v>
       </c>
       <c r="R37">
-        <v>1797.869505017174</v>
+        <v>987.8588791034671</v>
       </c>
       <c r="S37">
-        <v>0.06061314267738065</v>
+        <v>0.02734808933542254</v>
       </c>
       <c r="T37">
-        <v>0.07046272788433398</v>
+        <v>0.03224564396066595</v>
       </c>
     </row>
   </sheetData>
